--- a/data/trans_dic/P57_AC_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61,29; 70,64</t>
+          <t>61,89; 70,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,26; 68,3</t>
+          <t>58,26; 68,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,74; 80,38</t>
+          <t>71,62; 79,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,99; 60,21</t>
+          <t>50,65; 59,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,46; 70,63</t>
+          <t>59,89; 70,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,81; 73,24</t>
+          <t>61,67; 72,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,19; 81,23</t>
+          <t>72,52; 81,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,88; 55,12</t>
+          <t>47,04; 55,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,49; 69,38</t>
+          <t>62,31; 69,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>60,95; 68,65</t>
+          <t>61,32; 68,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>73,43; 79,62</t>
+          <t>73,65; 80,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>50,0; 56,51</t>
+          <t>50,52; 56,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,28; 67,63</t>
+          <t>56,42; 66,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,41; 70,17</t>
+          <t>60,91; 70,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,83; 78,74</t>
+          <t>69,84; 78,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,13; 67,88</t>
+          <t>58,18; 67,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,12; 70,93</t>
+          <t>61,16; 70,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,5; 75,78</t>
+          <t>64,6; 75,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,95; 82,16</t>
+          <t>72,87; 81,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,97; 67,89</t>
+          <t>59,2; 67,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>60,45; 67,66</t>
+          <t>60,44; 67,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,96; 71,14</t>
+          <t>64,08; 71,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,91; 79,26</t>
+          <t>72,68; 78,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>60,01; 66,73</t>
+          <t>60,13; 66,59</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,77; 75,65</t>
+          <t>67,37; 75,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,98; 69,93</t>
+          <t>61,68; 69,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,49; 86,94</t>
+          <t>80,53; 87,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,88; 64,41</t>
+          <t>13,66; 64,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,73; 76,4</t>
+          <t>62,18; 76,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,06; 75,44</t>
+          <t>63,75; 75,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,19; 90,85</t>
+          <t>79,3; 90,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,02; 71,74</t>
+          <t>59,97; 71,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>67,85; 74,69</t>
+          <t>68,01; 75,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63,59; 69,74</t>
+          <t>63,3; 69,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,57; 87,23</t>
+          <t>81,83; 87,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,83; 64,9</t>
+          <t>20,44; 64,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,93; 73,2</t>
+          <t>68,15; 73,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,77; 70,45</t>
+          <t>64,96; 70,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,75; 81,35</t>
+          <t>76,76; 81,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,33; 67,32</t>
+          <t>60,54; 67,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,8; 76,38</t>
+          <t>69,86; 76,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,67; 80,89</t>
+          <t>74,56; 80,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,7; 85,75</t>
+          <t>80,63; 85,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,73; 64,59</t>
+          <t>58,62; 64,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,48; 73,52</t>
+          <t>69,45; 73,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>69,43; 73,74</t>
+          <t>69,67; 74,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>78,85; 82,49</t>
+          <t>78,99; 82,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>60,66; 65,22</t>
+          <t>60,82; 65,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,54; 75,73</t>
+          <t>65,88; 75,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>66,67; 75,13</t>
+          <t>66,48; 74,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77,31; 83,67</t>
+          <t>77,01; 83,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,04; 72,46</t>
+          <t>63,36; 72,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,62; 80,83</t>
+          <t>73,96; 80,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,52; 78,76</t>
+          <t>72,92; 79,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,89; 87,25</t>
+          <t>82,11; 87,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,33; 69,11</t>
+          <t>45,19; 69,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>72,17; 77,79</t>
+          <t>72,07; 77,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>71,39; 76,47</t>
+          <t>71,49; 76,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>80,79; 84,85</t>
+          <t>80,84; 84,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,91; 69,19</t>
+          <t>52,42; 68,9</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>50,94; 62,08</t>
+          <t>50,87; 62,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>53,86; 66,13</t>
+          <t>53,59; 65,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>71,49; 81,74</t>
+          <t>70,81; 81,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,38; 52,33</t>
+          <t>31,1; 52,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>66,43; 71,57</t>
+          <t>66,51; 71,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,91; 74,32</t>
+          <t>68,64; 73,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>79,01; 83,94</t>
+          <t>79,47; 84,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,96; 67,13</t>
+          <t>59,95; 66,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>64,25; 68,81</t>
+          <t>64,34; 68,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>66,87; 71,63</t>
+          <t>66,57; 71,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>78,25; 82,67</t>
+          <t>78,24; 82,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>54,05; 61,8</t>
+          <t>53,87; 61,55</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>66,45; 69,57</t>
+          <t>66,44; 69,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>64,76; 68,09</t>
+          <t>64,79; 68,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,56; 80,53</t>
+          <t>77,54; 80,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44,97; 61,69</t>
+          <t>44,09; 61,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>69,28; 72,35</t>
+          <t>69,16; 72,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>71,48; 74,63</t>
+          <t>71,62; 74,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>80,81; 83,28</t>
+          <t>80,77; 83,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>56,13; 63,3</t>
+          <t>57,02; 63,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>68,19; 70,47</t>
+          <t>68,24; 70,6</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>68,64; 70,95</t>
+          <t>68,79; 70,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>79,56; 81,55</t>
+          <t>79,67; 81,54</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>51,54; 61,69</t>
+          <t>52,07; 62,01</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>312815</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>275500</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>326582</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>277391</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>199621</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>210193</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>266434</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>227310</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>512436</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>485693</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>593016</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>504701</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>292557; 333130</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>254129; 296731</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>306717; 341218</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>252868; 299406</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>182969; 216718</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>191944; 227156</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>250244; 281714</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>208890; 245035</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>484876; 539565</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>458311; 514791</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>569517; 619250</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>476582; 532724</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>226509</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>273937</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>277590</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>283740</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>245286</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>235847</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>288368</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>242866</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>471795</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>509784</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>565957</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>526605</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>206133; 244746</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>253853; 293386</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>260588; 294544</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>262087; 306299</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>227423; 262392</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>215992; 252755</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>269849; 303072</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>225197; 256740</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>445597; 497031</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>481331; 534097</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>540273; 586653</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>499626; 553310</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>388951</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>410402</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>437855</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>263501</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>116649</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>180770</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>139963</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>108019</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>505600</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>591171</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>577818</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>371521</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>365391; 407875</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>384715; 433932</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>419501; 453568</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>90700; 425530</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>103718; 127266</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>165224; 195027</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>128926; 147854</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>98693; 117974</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>482327; 532235</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>558900; 617471</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>559312; 595923</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>169397; 537273</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>866</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1271</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1526</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>875096</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>780063</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>903618</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>657384</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>522614</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>592703</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>686238</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>471230</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1397711</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1372766</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1589856</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1128615</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>843898; 907626</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>746432; 811417</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>877699; 931316</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>622754; 692834</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>499023; 546446</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>569421; 617281</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>662944; 706882</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>447056; 494627</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1356115; 1434396</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1332695; 1415420</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1552624; 1627439</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1089593; 1170957</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1304</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>248996</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>355915</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>496045</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>319015</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>441046</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>576276</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>621773</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>509675</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>690041</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>932191</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1117818</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>828691</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>230935; 265504</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>334666; 376414</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>473981; 515484</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>296487; 340355</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>420650; 459570</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>552978; 599023</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>602007; 640260</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>375352; 578118</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>662563; 715891</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>901967; 963695</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1090220; 1146094</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>680694; 894682</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>168604</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>158606</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>220437</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>98622</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>862422</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>788451</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>877456</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>473032</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1031026</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>947057</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1097893</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>571654</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>151688; 184993</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>142005; 173521</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>203333; 234988</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>74282; 124932</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>830593; 895403</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>757929; 816866</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>854617; 903346</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>446555; 498833</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>995265; 1067091</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>911554; 980771</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1066023; 1126663</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>529930; 605419</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2184</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2535</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2389</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2698</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5233</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5546</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2220972</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2254422</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2662126</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1899654</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2387638</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2584240</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2880231</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2032133</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4608609</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4838663</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5542357</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3931787</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2171123; 2277494</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2198921; 2310314</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2611789; 2710941</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1476817; 2068411</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2334801; 2438598</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2528920; 2636408</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2833875; 2927970</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1897158; 2104860</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4533373; 4690545</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4763928; 4912896</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5478794; 5607625</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3476881; 4140151</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P57_AC_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
